--- a/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/CargaCOdeSystemv2-0203.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/CargaCOdeSystemv2-0203.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{547042AE-9A4C-8D47-8722-AE096C50E00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0A1ED2-BE00-354F-B7C6-391C178614FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="860" windowWidth="27260" windowHeight="17060" xr2:uid="{ADBBE1A2-ED2B-2C49-B642-C50B6860FCB5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="361">
   <si>
     <t>AC</t>
   </si>
@@ -1116,6 +1116,9 @@
   </si>
   <si>
     <t xml:space="preserve">Name(2)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adicionar na collection </t>
   </si>
 </sst>
 </file>
@@ -1491,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB55B187-2587-1E43-939E-6787197A5CC9}">
-  <dimension ref="A2:D139"/>
+  <dimension ref="A2:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D145"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1502,9 +1505,10 @@
     <col min="2" max="2" width="52.33203125" customWidth="1"/>
     <col min="3" max="3" width="81.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>356</v>
       </c>
@@ -1517,8 +1521,11 @@
       <c r="D2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1540,7 +1547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1551,7 +1558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1562,7 +1569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1573,7 +1580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1584,7 +1591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1595,7 +1602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1606,7 +1613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1617,7 +1624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1639,7 +1646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1650,7 +1657,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1661,7 +1668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
